--- a/OWZA Achievements.xlsx
+++ b/OWZA Achievements.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
   <si>
     <t>Completed:</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Find the Hidden Lab Behind Bookshelves</t>
   </si>
   <si>
-    <t>Blow up the Gas Station</t>
+    <t>Blow up the Gas Station in Terraville</t>
   </si>
   <si>
     <t>Find the Hidden Underground House</t>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>Journey Into the Abandoned Military Base</t>
+  </si>
+  <si>
+    <t>Find Joel Miller's Farm</t>
+  </si>
+  <si>
+    <t>Discover the Olympus International Airport Terminal</t>
   </si>
   <si>
     <t>Activate 4 Aston Generators</t>
@@ -235,7 +241,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -274,6 +280,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -319,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -355,6 +366,9 @@
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -362,28 +376,31 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -779,7 +796,7 @@
       <c r="A8" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="11">
@@ -820,8 +837,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
     </row>
     <row r="13">
       <c r="A13" s="8"/>
@@ -872,7 +889,7 @@
       <c r="A3" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="6">
@@ -883,7 +900,7 @@
       <c r="A4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="7">
@@ -894,7 +911,7 @@
       <c r="A5" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="6">
@@ -905,7 +922,7 @@
       <c r="A6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="11">
@@ -916,7 +933,7 @@
       <c r="A7" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="12">
@@ -927,7 +944,7 @@
       <c r="A8" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="11">
@@ -938,7 +955,7 @@
       <c r="A9" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="12">
@@ -949,7 +966,7 @@
       <c r="A10" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="11">
@@ -960,7 +977,7 @@
       <c r="A11" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="12">
@@ -969,8 +986,8 @@
     </row>
     <row r="12">
       <c r="A12" s="2"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="14"/>
     </row>
     <row r="13">
       <c r="A13" s="8"/>
@@ -983,10 +1000,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="17"/>
+      <c r="B14" s="18"/>
     </row>
     <row r="15">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="19" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1166,7 +1183,7 @@
       <c r="B15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="20">
         <v>10.0</v>
       </c>
     </row>
@@ -1193,8 +1210,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
     </row>
     <row r="19">
       <c r="A19" s="8"/>
@@ -1207,10 +1224,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="17"/>
+      <c r="B20" s="18"/>
     </row>
     <row r="21">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="19" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1321,22 +1338,22 @@
       <c r="A9" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="12">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="13" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="11">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="11">
@@ -1347,7 +1364,7 @@
         <v>50</v>
       </c>
       <c r="C11" s="12">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="12">
@@ -1358,7 +1375,7 @@
         <v>51</v>
       </c>
       <c r="C12" s="11">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="13">
@@ -1369,7 +1386,7 @@
         <v>52</v>
       </c>
       <c r="C13" s="12">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="14">
@@ -1390,8 +1407,8 @@
       <c r="B15" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="19">
-        <v>25.0</v>
+      <c r="C15" s="12">
+        <v>10.0</v>
       </c>
     </row>
     <row r="16">
@@ -1402,21 +1419,29 @@
         <v>55</v>
       </c>
       <c r="C16" s="11">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="20">
         <v>25.0</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="12"/>
-    </row>
     <row r="18">
-      <c r="B18" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="13">
-        <f>SUM(C3:C16)</f>
-        <v>155</v>
+      <c r="A18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="11">
+        <v>25.0</v>
       </c>
     </row>
     <row r="19">
@@ -1425,13 +1450,27 @@
       <c r="C19" s="10"/>
     </row>
     <row r="20">
-      <c r="A20" s="20" t="s">
-        <v>56</v>
+      <c r="B20" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="14">
+        <f>SUM(C3:C18)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="22" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1441,6 +1480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1470,8 +1510,8 @@
       <c r="A3" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>57</v>
+      <c r="B3" s="23" t="s">
+        <v>59</v>
       </c>
       <c r="C3" s="6">
         <v>5.0</v>
@@ -1481,8 +1521,8 @@
       <c r="A4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>58</v>
+      <c r="B4" s="24" t="s">
+        <v>60</v>
       </c>
       <c r="C4" s="7">
         <v>15.0</v>
@@ -1492,8 +1532,8 @@
       <c r="A5" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>59</v>
+      <c r="B5" s="25" t="s">
+        <v>61</v>
       </c>
       <c r="C5" s="6">
         <v>25.0</v>
@@ -1503,8 +1543,8 @@
       <c r="A6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>60</v>
+      <c r="B6" s="24" t="s">
+        <v>62</v>
       </c>
       <c r="C6" s="11">
         <v>5.0</v>
@@ -1514,8 +1554,8 @@
       <c r="A7" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>61</v>
+      <c r="B7" s="23" t="s">
+        <v>63</v>
       </c>
       <c r="C7" s="12">
         <v>10.0</v>
@@ -1525,8 +1565,8 @@
       <c r="A8" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>62</v>
+      <c r="B8" s="24" t="s">
+        <v>64</v>
       </c>
       <c r="C8" s="11">
         <v>15.0</v>
@@ -1536,8 +1576,8 @@
       <c r="A9" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>63</v>
+      <c r="B9" s="23" t="s">
+        <v>65</v>
       </c>
       <c r="C9" s="12">
         <v>5.0</v>
@@ -1547,8 +1587,8 @@
       <c r="A10" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>64</v>
+      <c r="B10" s="24" t="s">
+        <v>66</v>
       </c>
       <c r="C10" s="11">
         <v>5.0</v>
@@ -1558,8 +1598,8 @@
       <c r="A11" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>65</v>
+      <c r="B11" s="23" t="s">
+        <v>67</v>
       </c>
       <c r="C11" s="12">
         <v>5.0</v>
@@ -1569,8 +1609,8 @@
       <c r="A12" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>66</v>
+      <c r="B12" s="24" t="s">
+        <v>68</v>
       </c>
       <c r="C12" s="11">
         <v>5.0</v>
@@ -1580,8 +1620,8 @@
       <c r="A13" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>67</v>
+      <c r="B13" s="23" t="s">
+        <v>69</v>
       </c>
       <c r="C13" s="12">
         <v>5.0</v>
@@ -1591,8 +1631,8 @@
       <c r="A14" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>68</v>
+      <c r="B14" s="24" t="s">
+        <v>70</v>
       </c>
       <c r="C14" s="11">
         <v>10.0</v>
@@ -1602,10 +1642,10 @@
       <c r="A15" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="19">
+      <c r="B15" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="20">
         <v>20.0</v>
       </c>
     </row>
@@ -1625,17 +1665,20 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="17"/>
+      <c r="B18" s="18"/>
     </row>
     <row r="19">
-      <c r="A19" s="18" t="s">
-        <v>70</v>
+      <c r="A19" s="19" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A19:C19"/>
   </mergeCells>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup cellComments="atEnd" orientation="portrait" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/OWZA Achievements.xlsx
+++ b/OWZA Achievements.xlsx
@@ -9,6 +9,7 @@
     <sheet state="visible" name="Los Echos" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="Other" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="Non-Location Based" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Fishing" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="84">
   <si>
     <t>Completed:</t>
   </si>
@@ -168,12 +169,27 @@
     <t>Discover the Olympus International Airport Terminal</t>
   </si>
   <si>
+    <t>Find the Emerald Embezzlers</t>
+  </si>
+  <si>
     <t>Activate 4 Aston Generators</t>
   </si>
   <si>
     <t>Buy an Item With Keys</t>
   </si>
   <si>
+    <t>Stumble across the Bonsai Tree in the Swamp</t>
+  </si>
+  <si>
+    <t>You Have Entered Shrunks Swamp... Get Out</t>
+  </si>
+  <si>
+    <t>Find Arlham Prison</t>
+  </si>
+  <si>
+    <t>Find the Niyol Mine</t>
+  </si>
+  <si>
     <t>Find 4 Tutorial Diamonds</t>
   </si>
   <si>
@@ -235,6 +251,120 @@
   </si>
   <si>
     <t>There are 2 Secret Achievements in this Category!</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">Fish up a Legendary Giant Sea Bass
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>- Can Be Found in Deep Ocean</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">Fish up a Legendary Eel
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>- Can be Found in Deep Lukewarm Ocean</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">Fish up a Legendary Bluefin Tuna
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>- Can be Found in Ocean</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">Fish up a Legendary Peppermint Angelfish
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>- Can be Found in Lukewarm Ocean</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">Fish up a Legendary Diamond Darter
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>- Can be Found in River</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">Fish up a Legendary Sturgeon
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>- Can be Found in Swamp</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -310,7 +440,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,6 +453,12 @@
         <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -330,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="40">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -391,6 +527,33 @@
     <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -403,6 +566,19 @@
     <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -432,6 +608,10 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1360,21 +1540,21 @@
       <c r="A11" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="21" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="12">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="23">
         <v>10.0</v>
       </c>
     </row>
@@ -1386,25 +1566,25 @@
         <v>52</v>
       </c>
       <c r="C13" s="12">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="11">
-        <v>15.0</v>
+      <c r="C14" s="12">
+        <v>10.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="21" t="s">
         <v>54</v>
       </c>
       <c r="C15" s="12">
@@ -1415,11 +1595,11 @@
       <c r="A16" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="11">
-        <v>15.0</v>
+      <c r="C16" s="12">
+        <v>10.0</v>
       </c>
     </row>
     <row r="17">
@@ -1429,48 +1609,104 @@
       <c r="B17" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="20">
-        <v>25.0</v>
+      <c r="C17" s="12">
+        <v>10.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="26">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="28">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="29">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="28">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="26">
         <v>25.0</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="18" t="s">
+    <row r="23">
+      <c r="A23" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="28">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="14">
-        <f>SUM(C3:C18)</f>
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="22" t="s">
-        <v>58</v>
+      <c r="C25" s="9">
+        <f>SUM(C3:C23)</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="19" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A27:C27"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1510,8 +1746,8 @@
       <c r="A3" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>59</v>
+      <c r="B3" s="32" t="s">
+        <v>64</v>
       </c>
       <c r="C3" s="6">
         <v>5.0</v>
@@ -1521,8 +1757,8 @@
       <c r="A4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>60</v>
+      <c r="B4" s="33" t="s">
+        <v>65</v>
       </c>
       <c r="C4" s="7">
         <v>15.0</v>
@@ -1532,8 +1768,8 @@
       <c r="A5" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>61</v>
+      <c r="B5" s="34" t="s">
+        <v>66</v>
       </c>
       <c r="C5" s="6">
         <v>25.0</v>
@@ -1543,8 +1779,8 @@
       <c r="A6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>62</v>
+      <c r="B6" s="33" t="s">
+        <v>67</v>
       </c>
       <c r="C6" s="11">
         <v>5.0</v>
@@ -1554,8 +1790,8 @@
       <c r="A7" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>63</v>
+      <c r="B7" s="32" t="s">
+        <v>68</v>
       </c>
       <c r="C7" s="12">
         <v>10.0</v>
@@ -1565,8 +1801,8 @@
       <c r="A8" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>64</v>
+      <c r="B8" s="33" t="s">
+        <v>69</v>
       </c>
       <c r="C8" s="11">
         <v>15.0</v>
@@ -1576,8 +1812,8 @@
       <c r="A9" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>65</v>
+      <c r="B9" s="32" t="s">
+        <v>70</v>
       </c>
       <c r="C9" s="12">
         <v>5.0</v>
@@ -1587,8 +1823,8 @@
       <c r="A10" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>66</v>
+      <c r="B10" s="33" t="s">
+        <v>71</v>
       </c>
       <c r="C10" s="11">
         <v>5.0</v>
@@ -1598,8 +1834,8 @@
       <c r="A11" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>67</v>
+      <c r="B11" s="32" t="s">
+        <v>72</v>
       </c>
       <c r="C11" s="12">
         <v>5.0</v>
@@ -1609,8 +1845,8 @@
       <c r="A12" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>68</v>
+      <c r="B12" s="33" t="s">
+        <v>73</v>
       </c>
       <c r="C12" s="11">
         <v>5.0</v>
@@ -1620,8 +1856,8 @@
       <c r="A13" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="B13" s="23" t="s">
-        <v>69</v>
+      <c r="B13" s="32" t="s">
+        <v>74</v>
       </c>
       <c r="C13" s="12">
         <v>5.0</v>
@@ -1631,8 +1867,8 @@
       <c r="A14" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>70</v>
+      <c r="B14" s="33" t="s">
+        <v>75</v>
       </c>
       <c r="C14" s="11">
         <v>10.0</v>
@@ -1642,8 +1878,8 @@
       <c r="A15" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>71</v>
+      <c r="B15" s="32" t="s">
+        <v>76</v>
       </c>
       <c r="C15" s="20">
         <v>20.0</v>
@@ -1669,7 +1905,7 @@
     </row>
     <row r="19">
       <c r="A19" s="19" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1681,4 +1917,124 @@
   <pageSetup cellComments="atEnd" orientation="portrait" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="12.88"/>
+    <col customWidth="1" min="2" max="2" width="38.75"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="6">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="7">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="6">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="11">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="12">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="11">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="37"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="23"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="10">
+        <f>SUM(C3:C8)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="39"/>
+      <c r="B11" s="18"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>